--- a/Extensive/metaResult.xlsx
+++ b/Extensive/metaResult.xlsx
@@ -101,7 +101,7 @@
     <t>stop</t>
   </si>
   <si>
-    <t>I understand you want me to turn off something. You can say turn off the wipers or switch off the AC.</t>
+    <t>I understand you want me to turn off something. You can say turn off the sprinklers or turn off my home lights.</t>
   </si>
   <si>
     <t>exit</t>
